--- a/responses/2039/Interp/U_interp_arguments.xlsx
+++ b/responses/2039/Interp/U_interp_arguments.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="49">
   <si>
     <t>A man is delivering a package to a woman.</t>
   </si>
@@ -148,13 +148,31 @@
   </si>
   <si>
     <t>no</t>
+  </si>
+  <si>
+    <t>Similar</t>
+  </si>
+  <si>
+    <t>4, 14, 28, 44</t>
+  </si>
+  <si>
+    <t>5, 29</t>
+  </si>
+  <si>
+    <t>6, 27, 37</t>
+  </si>
+  <si>
+    <t>2, 25</t>
+  </si>
+  <si>
+    <t>2, 5</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -166,6 +184,22 @@
       <b/>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -188,14 +222,30 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="9">
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -525,10 +575,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B60"/>
+  <dimension ref="A1:C60"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B61" sqref="B61"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -536,95 +586,116 @@
     <col min="1" max="1" width="54.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
         <v>37</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="2" spans="1:2">
+      <c r="C1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
       <c r="B2" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="4" spans="1:2">
+      <c r="C2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
       <c r="A4" t="s">
         <v>1</v>
       </c>
       <c r="B4" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="5" spans="1:2">
+      <c r="C4" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
       <c r="A5" t="s">
         <v>2</v>
       </c>
       <c r="B5" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="6" spans="1:2">
+      <c r="C5" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
       <c r="A6" t="s">
         <v>3</v>
       </c>
       <c r="B6" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="8" spans="1:2">
+      <c r="C6" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
       <c r="A8" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="9" spans="1:2">
+      <c r="C8">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
       <c r="A9" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
+    <row r="10" spans="1:3">
       <c r="A10" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="1:2">
+    <row r="12" spans="1:3">
       <c r="A12" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="14" spans="1:2">
+    <row r="14" spans="1:3">
       <c r="A14" t="s">
         <v>8</v>
       </c>
       <c r="B14" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="15" spans="1:2">
+      <c r="C14" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
       <c r="A15" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="16" spans="1:2">
+    <row r="16" spans="1:3">
       <c r="A16" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="17" spans="1:2">
+    <row r="17" spans="1:3">
       <c r="A17" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="19" spans="1:2">
+    <row r="19" spans="1:3">
       <c r="A19" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="20" spans="1:2">
+    <row r="20" spans="1:3">
       <c r="A20" t="s">
         <v>38</v>
       </c>
@@ -632,7 +703,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="21" spans="1:2">
+    <row r="21" spans="1:3">
       <c r="A21" t="s">
         <v>39</v>
       </c>
@@ -640,7 +711,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="23" spans="1:2">
+    <row r="23" spans="1:3">
       <c r="A23" t="s">
         <v>13</v>
       </c>
@@ -648,23 +719,29 @@
         <v>42</v>
       </c>
     </row>
-    <row r="25" spans="1:2">
+    <row r="25" spans="1:3">
       <c r="A25" t="s">
         <v>14</v>
       </c>
       <c r="B25" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="27" spans="1:2">
+      <c r="C25" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
       <c r="A27" t="s">
         <v>15</v>
       </c>
       <c r="B27" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="28" spans="1:2">
+      <c r="C27" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
       <c r="A28" t="s">
         <v>16</v>
       </c>
@@ -672,32 +749,38 @@
         <v>41</v>
       </c>
     </row>
-    <row r="29" spans="1:2">
+    <row r="29" spans="1:3">
       <c r="A29" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="31" spans="1:2">
+      <c r="B29" t="s">
+        <v>41</v>
+      </c>
+      <c r="C29" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
       <c r="A31" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="32" spans="1:2">
+    <row r="32" spans="1:3">
       <c r="A32" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="33" spans="1:2">
+    <row r="33" spans="1:3">
       <c r="A33" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="35" spans="1:2">
+    <row r="35" spans="1:3">
       <c r="A35" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="37" spans="1:2">
+    <row r="37" spans="1:3">
       <c r="A37" t="s">
         <v>22</v>
       </c>
@@ -705,35 +788,38 @@
         <v>41</v>
       </c>
     </row>
-    <row r="39" spans="1:2">
+    <row r="39" spans="1:3">
       <c r="A39" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="40" spans="1:2">
+    <row r="40" spans="1:3">
       <c r="A40" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="42" spans="1:2">
+    <row r="42" spans="1:3">
       <c r="A42" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="44" spans="1:2">
+    <row r="44" spans="1:3">
       <c r="A44" t="s">
         <v>26</v>
       </c>
       <c r="B44" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="46" spans="1:2">
+      <c r="C44" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3">
       <c r="A46" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="47" spans="1:2">
+    <row r="47" spans="1:3">
       <c r="A47" t="s">
         <v>28</v>
       </c>
@@ -798,6 +884,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
